--- a/artfynd/A 63855-2025 artfynd.xlsx
+++ b/artfynd/A 63855-2025 artfynd.xlsx
@@ -1019,7 +1019,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131082779</v>
+        <v>131082775</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1062,10 +1062,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>459964</v>
+        <v>460143</v>
       </c>
       <c r="R5" t="n">
-        <v>7046508</v>
+        <v>7046505</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på en gran vid en hyggeskant.</t>
+          <t>Ringhack (savhack), färska och äldre, några meter upp på en gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1154,7 +1154,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131082775</v>
+        <v>131082779</v>
       </c>
       <c r="B6" t="n">
         <v>57884</v>
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>460143</v>
+        <v>459964</v>
       </c>
       <c r="R6" t="n">
-        <v>7046505</v>
+        <v>7046508</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack (savhack), färska och äldre, några meter upp på en gran vid en hyggeskant.</t>
+          <t>Ringhack, färska och äldre, på en gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 63855-2025 artfynd.xlsx
+++ b/artfynd/A 63855-2025 artfynd.xlsx
@@ -1019,7 +1019,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131082775</v>
+        <v>131082778</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1052,7 +1052,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1062,10 +1062,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>460143</v>
+        <v>459982</v>
       </c>
       <c r="R5" t="n">
-        <v>7046505</v>
+        <v>7046511</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack (savhack), färska och äldre, några meter upp på en gran vid en hyggeskant.</t>
+          <t>Ringhack, äldre, på en gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1154,10 +1154,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131082779</v>
+        <v>131082788</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1165,42 +1165,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Hävlarna, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>459964</v>
+        <v>460054</v>
       </c>
       <c r="R6" t="n">
-        <v>7046508</v>
+        <v>7046549</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1237,7 +1229,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på en gran vid en hyggeskant.</t>
+          <t>På en stående död gran.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1248,31 +1240,6 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1289,10 +1256,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131082778</v>
+        <v>131082786</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1300,42 +1267,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Hävlarna, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>459982</v>
+        <v>460119</v>
       </c>
       <c r="R7" t="n">
-        <v>7046511</v>
+        <v>7046519</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1372,7 +1331,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran vid en hyggeskant.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1383,31 +1342,6 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1424,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131082788</v>
+        <v>131082776</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1435,34 +1369,42 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Hävlarna, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>460054</v>
+        <v>460068</v>
       </c>
       <c r="R8" t="n">
-        <v>7046549</v>
+        <v>7046530</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1499,7 +1441,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>På en stående död gran.</t>
+          <t>Ringhack (savhack), äldre på gränsen till färska, på en gran några meter in i granskogen från en hyggeskant.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1510,6 +1452,31 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1526,10 +1493,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131082786</v>
+        <v>131082774</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1537,34 +1504,41 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Hävlarna, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>460119</v>
+        <v>460010</v>
       </c>
       <c r="R9" t="n">
-        <v>7046519</v>
+        <v>7046547</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1601,7 +1575,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>I en upplyft granlåga.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1610,8 +1584,34 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1628,7 +1628,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131082776</v>
+        <v>131082775</v>
       </c>
       <c r="B10" t="n">
         <v>57884</v>
@@ -1661,7 +1661,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1671,10 +1671,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>460068</v>
+        <v>460143</v>
       </c>
       <c r="R10" t="n">
-        <v>7046530</v>
+        <v>7046505</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ringhack (savhack), äldre på gränsen till färska, på en gran några meter in i granskogen från en hyggeskant.</t>
+          <t>Ringhack (savhack), färska och äldre, några meter upp på en gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1763,10 +1763,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131082774</v>
+        <v>131082779</v>
       </c>
       <c r="B11" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1774,28 +1774,29 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1805,10 +1806,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>460010</v>
+        <v>459964</v>
       </c>
       <c r="R11" t="n">
-        <v>7046547</v>
+        <v>7046508</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1845,7 +1846,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>I en upplyft granlåga.</t>
+          <t>Ringhack, färska och äldre, på en gran vid en hyggeskant. Kring fyndplatsen finns en volym stående död ved av gran som indikerar högt livsmiljövärde för tretåig hackspett.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1854,7 +1855,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1875,12 +1875,12 @@
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>

--- a/artfynd/A 63855-2025 artfynd.xlsx
+++ b/artfynd/A 63855-2025 artfynd.xlsx
@@ -818,7 +818,7 @@
         <v>131082787</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>131082785</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>131082788</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>131082786</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>131082774</v>
       </c>
       <c r="B9" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
